--- a/[5] Tester Results/TEST_DATE_MERGED_SEX_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_DATE_MERGED_SEX_PARAMETRIC.xlsx
@@ -492,38 +492,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.46248201527855</v>
+        <v>0.7924820987900537</v>
       </c>
       <c r="C2" t="n">
-        <v>2.504140821674281e-06</v>
+        <v>0.4536557632140051</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.650677942448112e-06</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6765718876093746</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7741830065359476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,20 +514,38 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3839567223655292</v>
+        <v>16.98948096800753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6814918416509848</v>
+        <v>1.015630698284875e-07</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.149514560263356e-07</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.7497868144728467</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-3.335947712418299</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -554,20 +554,38 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7715948522939001</v>
+        <v>16.68405915905887</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4631813492857387</v>
+        <v>1.336940625936044e-07</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.863941083759315e-07</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.7458333775601894</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-3.311437908496732</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -576,16 +594,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.10207732531525</v>
+        <v>32.47839268916409</v>
       </c>
       <c r="C5" t="n">
-        <v>2.264951442243111e-13</v>
+        <v>1.660888927950219e-13</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1.108002578575906e-13</v>
+        <v>6.006306563222097e-14</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -603,10 +621,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-1.032118956484955</v>
+        <v>-1.06840432677928</v>
       </c>
       <c r="J5" t="n">
-        <v>-55.00196078431372</v>
+        <v>-26.87761437908497</v>
       </c>
     </row>
     <row r="6">
@@ -616,16 +634,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.40691898753644</v>
+        <v>33.29964278270213</v>
       </c>
       <c r="C6" t="n">
-        <v>1.761596632644669e-13</v>
+        <v>8.458494567543781e-14</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>8.859579736508749e-14</v>
+        <v>2.675637489346627e-14</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -643,10 +661,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-1.038435218705671</v>
+        <v>-1.080468207749452</v>
       </c>
       <c r="J6" t="n">
-        <v>-54.77187418300656</v>
+        <v>-26.02940539069938</v>
       </c>
     </row>
     <row r="7">
@@ -656,16 +674,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.7303539111443</v>
+        <v>34.99942018295182</v>
       </c>
       <c r="C7" t="n">
-        <v>7.05464239654345e-13</v>
+        <v>2.112879619149577e-14</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>4.370948047949241e-13</v>
+        <v>5.76073885238948e-06</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -683,10 +701,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-1.007980079116913</v>
+        <v>-1.101670300347683</v>
       </c>
       <c r="J7" t="n">
-        <v>-48.87459313725489</v>
+        <v>-24.43000873446334</v>
       </c>
     </row>
     <row r="8">
@@ -696,16 +714,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.7163699039811</v>
+        <v>30.39254355191628</v>
       </c>
       <c r="C8" t="n">
-        <v>3.799154022681234e-12</v>
+        <v>9.344522566611574e-13</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.340816346839802e-12</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -723,10 +741,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-0.9801081788398456</v>
+        <v>-1.031846247511233</v>
       </c>
       <c r="J8" t="n">
-        <v>-20.87939869281045</v>
+        <v>-8.752472222222218</v>
       </c>
     </row>
     <row r="9">
@@ -736,10 +754,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.949078629950165</v>
+        <v>0.4025863143518633</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05389365212438085</v>
+        <v>0.6689457210197503</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -758,16 +776,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.95916173475105</v>
+        <v>28.47506311203874</v>
       </c>
       <c r="C10" t="n">
-        <v>2.548555228744119e-13</v>
+        <v>4.654201626721115e-12</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>7.793765632868599e-14</v>
+        <v>3.340328014189708e-12</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -785,10 +803,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-1.041725113794261</v>
+        <v>-0.9775529113095323</v>
       </c>
       <c r="J10" t="n">
-        <v>-5674.309166666668</v>
+        <v>-1190.152199346405</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/TEST_DATE_MERGED_SEX_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_DATE_MERGED_SEX_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,38 +492,56 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7924820987900537</v>
+        <v>16.98948096800753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4536557632140051</v>
+        <v>1.015630698284875e-07</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.149514560263356e-07</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.7497868144728467</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-3.335947712418299</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.98948096800753</v>
+        <v>32.47839268916409</v>
       </c>
       <c r="C3" t="n">
-        <v>1.015630698284875e-07</v>
+        <v>1.660888927950219e-13</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3.149514560263356e-07</v>
+        <v>6.006306563222097e-14</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -532,38 +550,38 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>June26</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
       <c r="I3" t="n">
-        <v>-0.7497868144728467</v>
+        <v>-1.06840432677928</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.335947712418299</v>
+        <v>-26.87761437908497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.68405915905887</v>
+        <v>33.29964278270213</v>
       </c>
       <c r="C4" t="n">
-        <v>1.336940625936044e-07</v>
+        <v>8.458494567543781e-14</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>3.863941083759315e-07</v>
+        <v>2.675637489346627e-14</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -572,38 +590,38 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>June26</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
       <c r="I4" t="n">
-        <v>-0.7458333775601894</v>
+        <v>-1.080468207749452</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.311437908496732</v>
+        <v>-26.02940539069938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.47839268916409</v>
+        <v>34.99942018295182</v>
       </c>
       <c r="C5" t="n">
-        <v>1.660888927950219e-13</v>
+        <v>2.112879619149577e-14</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>6.006306563222097e-14</v>
+        <v>5.76073885238948e-06</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -621,29 +639,29 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-1.06840432677928</v>
+        <v>-1.101670300347683</v>
       </c>
       <c r="J5" t="n">
-        <v>-26.87761437908497</v>
+        <v>-24.43000873446334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.29964278270213</v>
+        <v>30.39254355191628</v>
       </c>
       <c r="C6" t="n">
-        <v>8.458494567543781e-14</v>
+        <v>9.344522566611574e-13</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2.675637489346627e-14</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -661,69 +679,51 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>-1.080468207749452</v>
+        <v>-1.031846247511233</v>
       </c>
       <c r="J6" t="n">
-        <v>-26.02940539069938</v>
+        <v>-8.752472222222218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.99942018295182</v>
+        <v>0.4025863143518633</v>
       </c>
       <c r="C7" t="n">
-        <v>2.112879619149577e-14</v>
+        <v>0.6689457210197503</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.76073885238948e-06</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>-1.101670300347683</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-24.43000873446334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.39254355191628</v>
+        <v>28.47506311203874</v>
       </c>
       <c r="C8" t="n">
-        <v>9.344522566611574e-13</v>
+        <v>4.654201626721115e-12</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>3.340328014189708e-12</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -741,71 +741,9 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>-1.031846247511233</v>
+        <v>-0.9775529113095323</v>
       </c>
       <c r="J8" t="n">
-        <v>-8.752472222222218</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.4025863143518633</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6689457210197503</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>28.47506311203874</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.654201626721115e-12</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.340328014189708e-12</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>-0.9775529113095323</v>
-      </c>
-      <c r="J10" t="n">
         <v>-1190.152199346405</v>
       </c>
     </row>
